--- a/data/coded_segments/zm_2_2.xlsx
+++ b/data/coded_segments/zm_2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F5F4B7-8C0A-8249-8E0B-F604E70A9027}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5C9A821-DE8F-1244-B9B3-0C0C2BE1C862}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="1014">
   <si>
     <t>Color</t>
   </si>
@@ -3113,6 +3113,64 @@
   </si>
   <si>
     <t>10/29/18 12:29:00</t>
+  </si>
+  <si>
+    <t>1: 2617</t>
+  </si>
+  <si>
+    <t>1: 2637</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>11/8/18 14:35:00</t>
+  </si>
+  <si>
+    <t>1: 2873</t>
+  </si>
+  <si>
+    <t>1: 2900</t>
+  </si>
+  <si>
+    <t>ycobacterium tubercu- 
+losis</t>
+  </si>
+  <si>
+    <t>3: 2050</t>
+  </si>
+  <si>
+    <t>3: 2056</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>11/12/18 14:04:00</t>
+  </si>
+  <si>
+    <t>3: 2066</t>
+  </si>
+  <si>
+    <t>3: 2072</t>
+  </si>
+  <si>
+    <t>3: 2058</t>
+  </si>
+  <si>
+    <t>3: 2061</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>3: 2074</t>
+  </si>
+  <si>
+    <t>3: 2077</t>
+  </si>
+  <si>
+    <t>11/12/18 14:05:00</t>
   </si>
 </sst>
 </file>
@@ -3627,7 +3685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M410"/>
+  <dimension ref="A1:M420"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20451,6 +20509,416 @@
         <v>994</v>
       </c>
     </row>
+    <row r="411" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A411" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="H411" s="3">
+        <v>0</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="J411" s="3">
+        <v>21</v>
+      </c>
+      <c r="K411" s="4">
+        <v>8.3287E-2</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M411" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A412" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H412" s="3">
+        <v>0</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J412" s="3">
+        <v>28</v>
+      </c>
+      <c r="K412" s="4">
+        <v>9.4362000000000001E-2</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H413" s="3">
+        <v>0</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J413" s="3">
+        <v>7</v>
+      </c>
+      <c r="K413" s="4">
+        <v>2.359E-2</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M413" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H414" s="3">
+        <v>0</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J414" s="3">
+        <v>7</v>
+      </c>
+      <c r="K414" s="4">
+        <v>2.359E-2</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A415" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H415" s="3">
+        <v>0</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J415" s="3">
+        <v>4</v>
+      </c>
+      <c r="K415" s="4">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M415" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H416" s="3">
+        <v>0</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J416" s="3">
+        <v>4</v>
+      </c>
+      <c r="K416" s="4">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A417" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H417" s="3">
+        <v>0</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J417" s="3">
+        <v>4</v>
+      </c>
+      <c r="K417" s="4">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H418" s="3">
+        <v>0</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J418" s="3">
+        <v>7</v>
+      </c>
+      <c r="K418" s="4">
+        <v>2.359E-2</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H419" s="3">
+        <v>0</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J419" s="3">
+        <v>4</v>
+      </c>
+      <c r="K419" s="4">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H420" s="3">
+        <v>0</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J420" s="3">
+        <v>7</v>
+      </c>
+      <c r="K420" s="4">
+        <v>2.359E-2</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
